--- a/02 Desarrollo/01 Planificacion y Analisis/Cronograma del Proyecto.xlsx
+++ b/02 Desarrollo/01 Planificacion y Analisis/Cronograma del Proyecto.xlsx
@@ -1,30 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOSE\Downloads\Clon\HPNPSD\02 Desarrollo\01 Planificacion y Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51004A7E-F413-488A-AFA2-0F99BA198260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8532"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
   <si>
     <t>CRONOGRAMA DEL PROYECTO</t>
   </si>
@@ -181,12 +192,48 @@
   </si>
   <si>
     <t>Encargado(s)</t>
+  </si>
+  <si>
+    <t>Hito 1 - Fin del Sprint #3</t>
+  </si>
+  <si>
+    <t>Desarrollo Back end requisito 4</t>
+  </si>
+  <si>
+    <t>Desarrollo Front end requisito 5</t>
+  </si>
+  <si>
+    <t>Pruebas</t>
+  </si>
+  <si>
+    <t>Despliegue</t>
+  </si>
+  <si>
+    <t>HPNPSD-DBE4.ipynb</t>
+  </si>
+  <si>
+    <t>HPNPSD-DFE3.ipynb</t>
+  </si>
+  <si>
+    <t>HPNPSD-DP.docx</t>
+  </si>
+  <si>
+    <t>HPNPSD-DD.docx</t>
+  </si>
+  <si>
+    <t>Azucena</t>
+  </si>
+  <si>
+    <t>Abad, Delgado y Agüero</t>
+  </si>
+  <si>
+    <t>Abad y Delgado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -232,26 +279,27 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <i/>
+      <sz val="12"/>
       <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,8 +324,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -434,44 +488,113 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -482,36 +605,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -791,11 +891,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.45" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -809,423 +909,529 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="15" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="22" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="3">
         <v>5</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="22" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="22" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="4">
         <v>44818</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="22" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="4">
         <v>44890</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
     </row>
     <row r="11" spans="1:8" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="10">
         <v>44818</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="10">
         <v>44825</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7" t="s">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="10">
         <v>44818</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="10">
         <v>44825</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="10">
         <v>44818</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="10">
         <v>44825</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="6" t="s">
+    <row r="14" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5"/>
+      <c r="B14" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="10">
         <v>44818</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="10">
         <v>44825</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="10">
         <v>44818</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="10">
         <v>44825</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="19" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="28" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="4">
+      <c r="E16" s="12"/>
+      <c r="F16" s="10">
         <v>44825</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="10">
         <v>44832</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="4">
+      <c r="E17" s="12"/>
+      <c r="F17" s="10">
         <v>44825</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="10">
         <v>44832</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="5"/>
+      <c r="B18" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="4">
+      <c r="E18" s="12"/>
+      <c r="F18" s="10">
         <v>44825</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="10">
         <v>44832</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="5"/>
+      <c r="B19" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="4">
+      <c r="E19" s="12"/>
+      <c r="F19" s="10">
         <v>44839</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="10">
         <v>44846</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="5"/>
+      <c r="B20" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="4">
+      <c r="E20" s="12"/>
+      <c r="F20" s="10">
         <v>44839</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="10">
         <v>44846</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="5"/>
+      <c r="B21" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="4">
+      <c r="E21" s="12"/>
+      <c r="F21" s="10">
         <v>44839</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="10">
         <v>44846</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="5"/>
+      <c r="B22" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="4">
+      <c r="E22" s="12"/>
+      <c r="F22" s="10">
         <v>44839</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="10">
         <v>44846</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-      <c r="B23" s="10" t="s">
+      <c r="A23" s="5"/>
+      <c r="B23" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="21">
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="24">
         <f>AVERAGE(H11:H22)</f>
         <v>0.41666666666666669</v>
       </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="17">
+        <v>44818</v>
+      </c>
+      <c r="G24" s="17">
+        <v>44885</v>
+      </c>
+      <c r="H24" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="13"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="17">
+        <v>44818</v>
+      </c>
+      <c r="G25" s="17">
+        <v>44889</v>
+      </c>
+      <c r="H25" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="17">
+        <v>44818</v>
+      </c>
+      <c r="G26" s="17">
+        <v>44889</v>
+      </c>
+      <c r="H26" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="17">
+        <v>44818</v>
+      </c>
+      <c r="G27" s="17">
+        <v>44889</v>
+      </c>
+      <c r="H27" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="13"/>
+      <c r="B28" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="25">
+        <f>AVERAGE(H24:H27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/02 Desarrollo/01 Planificacion y Analisis/Cronograma del Proyecto.xlsx
+++ b/02 Desarrollo/01 Planificacion y Analisis/Cronograma del Proyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOSE\Downloads\Clon\HPNPSD\02 Desarrollo\01 Planificacion y Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51004A7E-F413-488A-AFA2-0F99BA198260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CABFF1-BE9A-4D0B-AB7E-B45B67BD0B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -194,9 +194,6 @@
     <t>Encargado(s)</t>
   </si>
   <si>
-    <t>Hito 1 - Fin del Sprint #3</t>
-  </si>
-  <si>
     <t>Desarrollo Back end requisito 4</t>
   </si>
   <si>
@@ -228,6 +225,9 @@
   </si>
   <si>
     <t>Abad y Delgado</t>
+  </si>
+  <si>
+    <t>Hito 3 - Fin del Sprint #3</t>
   </si>
 </sst>
 </file>
@@ -507,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -611,7 +611,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -892,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.45" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1331,13 +1330,13 @@
       <c r="A24" s="13"/>
       <c r="B24" s="14"/>
       <c r="C24" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F24" s="17">
         <v>44818</v>
@@ -1353,13 +1352,13 @@
       <c r="A25" s="13"/>
       <c r="B25" s="19"/>
       <c r="C25" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F25" s="17">
         <v>44818</v>
@@ -1375,13 +1374,13 @@
       <c r="A26" s="13"/>
       <c r="B26" s="14"/>
       <c r="C26" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F26" s="17">
         <v>44818</v>
@@ -1397,13 +1396,13 @@
       <c r="A27" s="13"/>
       <c r="B27" s="14"/>
       <c r="C27" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>60</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>61</v>
       </c>
       <c r="F27" s="17">
         <v>44818</v>
@@ -1418,7 +1417,7 @@
     <row r="28" spans="1:8" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="13"/>
       <c r="B28" s="23" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
@@ -1429,9 +1428,6 @@
         <f>AVERAGE(H24:H27)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="10">
